--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="message" sheetId="1" r:id="rId1"/>
+    <sheet name="operation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +498,46 @@
   </si>
   <si>
     <t>0x802A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientLogout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientVerifyUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientForgotPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +598,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -841,611 +885,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB984F3-CB96-4BEF-B2AC-D2B2DF9ED4C9}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{D80B3A99-2BEB-4111-BC13-50BE7686C512}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId1"/>
     <sheet name="operation" sheetId="2" r:id="rId2"/>
+    <sheet name="Product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +540,42 @@
   </si>
   <si>
     <t>Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskNo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceOffer(L~H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W-200W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenzhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB984F3-CB96-4BEF-B2AC-D2B2DF9ED4C9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1575,4 +1613,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEE6F64-76C0-4473-A3F0-473F570F00F3}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>10001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>10002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f>2^16-1</f>
+        <v>65535</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{D80B3A99-2BEB-4111-BC13-50BE7686C512}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2B0C1DAC-3A9D-4E7E-99A0-3DF8C86410B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{requestid, sessionid,managerid,passwords,verificationcode}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HTTP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{requestid, sessionid,managerid,loginstatus,comment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,clientid,loginstatus,comment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{requestid, sessionid,clientid,registerstatus,comment}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,18 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{requestid, sessionid,managerid,email}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,managerid,email,status,comment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,managerid,passwords,repasswords}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{requestid, sessionid,managerid,status,comment}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,6 +552,74 @@
   </si>
   <si>
     <t>100W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,managerid,loginname,email,passwords,verificationcode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager can login with managerid or loginname or email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,managerid,loginname,email,status,comment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile phone, email, 找回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(how this email has been sent, and the rules about reseting)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 mins expired limit, database to store reset link token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mViewClientList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mViewClientListAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,email,verificationcode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,email,status,comment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,managerid,passwords,repasswords,token}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,12 +660,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -636,13 +692,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -923,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -935,7 +996,7 @@
     <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -952,35 +1013,35 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>128</v>
+      <c r="A4" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -988,470 +1049,483 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>129</v>
+      <c r="A7" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>77</v>
       </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -1459,89 +1533,132 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,47 +1682,47 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1619,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEE6F64-76C0-4473-A3F0-473F570F00F3}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1632,19 +1749,19 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -1652,10 +1769,10 @@
         <v>10001</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -1663,10 +1780,10 @@
         <v>10002</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">

--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2B0C1DAC-3A9D-4E7E-99A0-3DF8C86410B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B8154D6-83F9-460B-A814-5E532B2CF631}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="152">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +620,14 @@
   </si>
   <si>
     <t>{requestid, sessionid,managerid,passwords,repasswords,token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientResetPw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,11 +707,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1032,7 +1040,7 @@
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B4" t="s">
@@ -1041,7 +1049,7 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -1049,7 +1057,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1072,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B7" t="s">
@@ -1073,7 +1081,7 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
@@ -1081,7 +1089,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1116,7 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
@@ -1139,7 +1147,7 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E13" t="s">
@@ -1167,7 +1175,7 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E15" t="s">
@@ -1195,7 +1203,7 @@
       <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E18" t="s">
@@ -1223,7 +1231,7 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E21" t="s">
@@ -1251,7 +1259,7 @@
       <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E24" t="s">
@@ -1279,7 +1287,7 @@
       <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E27" t="s">
@@ -1301,7 +1309,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B30" t="s">
@@ -1321,7 +1329,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>14</v>
       </c>
@@ -1668,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB984F3-CB96-4BEF-B2AC-D2B2DF9ED4C9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1723,6 +1731,17 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B8154D6-83F9-460B-A814-5E532B2CF631}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{268FA85C-5EA6-4943-85A6-441768185F82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId1"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEE6F64-76C0-4473-A3F0-473F570F00F3}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{268FA85C-5EA6-4943-85A6-441768185F82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId1"/>
     <sheet name="operation" sheetId="2" r:id="rId2"/>
     <sheet name="Product" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,14 +627,70 @@
   </si>
   <si>
     <t>ClientResetPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cDeposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, pnsid, pnsgid, clientid, quantity}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cDepositAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, pnsid, pnsgid, clientid, quantity, status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cWithdrawAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSaveCacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSaveCaccAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, clientid, pnsgid, pnsid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,7 +827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -807,7 +862,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -984,30 +1039,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="69.75" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="52.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1038,8 +1093,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1"/>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>122</v>
       </c>
@@ -1056,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>12</v>
@@ -1071,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>123</v>
       </c>
@@ -1088,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>16</v>
@@ -1103,10 +1158,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -1123,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1140,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1154,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1168,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -1182,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1196,7 +1251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -1210,7 +1265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>107</v>
       </c>
@@ -1224,7 +1279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1238,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -1252,7 +1307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -1266,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -1280,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -1294,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -1308,324 +1363,324 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>135</v>
-      </c>
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D40" t="s">
         <v>136</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C42" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D42" t="s">
         <v>147</v>
       </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C43" t="s">
         <v>72</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D43" t="s">
         <v>148</v>
       </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
+    <row r="44" spans="1:6">
+      <c r="F44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="45" spans="1:6">
+      <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D45" t="s">
         <v>149</v>
       </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
         <v>74</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D46" t="s">
         <v>70</v>
       </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" t="s">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D48" t="s">
         <v>87</v>
       </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C49" t="s">
         <v>76</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D49" t="s">
         <v>88</v>
       </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C51" t="s">
         <v>77</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D51" t="s">
         <v>89</v>
       </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C52" t="s">
         <v>78</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D52" t="s">
         <v>88</v>
       </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D54" t="s">
         <v>90</v>
       </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
         <v>84</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C55" t="s">
         <v>86</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D55" t="s">
         <v>88</v>
       </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C57" t="s">
         <v>94</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D57" t="s">
         <v>105</v>
       </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
         <v>96</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C58" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D58" t="s">
         <v>106</v>
       </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
         <v>93</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C60" t="s">
         <v>98</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D60" t="s">
         <v>52</v>
       </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
         <v>97</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C61" t="s">
         <v>99</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -1634,31 +1689,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5">
       <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
         <v>140</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C72" t="s">
         <v>141</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D72" t="s">
         <v>145</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
         <v>144</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C73" t="s">
         <v>143</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D73" t="s">
         <v>145</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1666,7 +1805,7 @@
   <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,20 +1814,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB984F3-CB96-4BEF-B2AC-D2B2DF9ED4C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1696,7 +1835,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>114</v>
       </c>
@@ -1704,7 +1843,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>115</v>
       </c>
@@ -1712,7 +1851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>116</v>
       </c>
@@ -1720,7 +1859,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>119</v>
       </c>
@@ -1728,7 +1867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>121</v>
       </c>
@@ -1736,7 +1875,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>151</v>
       </c>
@@ -1752,21 +1891,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEE6F64-76C0-4473-A3F0-473F570F00F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>125</v>
       </c>
@@ -1783,7 +1922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2">
         <v>10001</v>
       </c>
@@ -1794,7 +1933,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3">
         <v>10002</v>
       </c>
@@ -1805,12 +1944,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>10003</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="G6">
         <f>2^16-1</f>
         <v>65535</v>

--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,199 +450,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mEnableClientAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mResetClientPwAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x802A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientLogout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientVerifyUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientForgotPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskNo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceOffer(L~H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W-200W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenzhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,managerid,loginname,email,passwords,verificationcode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager can login with managerid or loginname or email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,managerid,loginname,email,status,comment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile phone, email, 找回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(how this email has been sent, and the rules about reseting)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 mins expired limit, database to store reset link token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mViewClientList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mViewClientListAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,email,verificationcode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,email,status,comment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid,managerid,passwords,repasswords,token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientResetPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cDeposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, pnsid, pnsgid, clientid, quantity}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cDepositAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, pnsid, pnsgid, clientid, quantity, status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cWithdrawAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSaveCacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSaveCaccAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, clientid, pnsgid, pnsid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cVerifyEmailAns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mEnableClientAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mResetClientPwAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x8027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x8028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x8029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x802A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientLogout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientVerifyUid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientForgotPw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskNo.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offline Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PriceOffer(L~H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100W-200W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wenzhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,managerid,loginname,email,passwords,verificationcode}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager can login with managerid or loginname or email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,managerid,loginname,email,status,comment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile phone, email, 找回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(how this email has been sent, and the rules about reseting)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 mins expired limit, database to store reset link token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mViewClientList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x80A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x80A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mViewClientListAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,email,verificationcode}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,email,status,comment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid,managerid,passwords,repasswords,token}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientResetPw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cDeposit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid, messageid, pnsid, pnsgid, clientid, quantity}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cDepositAns</t>
+    <t>cSendVerifyEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSendVerifyEmailAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, clientid, status}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,39 +698,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{requestid, sessionid, messageid, pnsid, pnsgid, clientid, quantity, status}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cWithdraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cWithdrawAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cSaveCacc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cSaveCaccAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid, messageid, clientid, pnsgid, pnsid}</t>
+    <t>0x0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cScanPersonalInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cScanPersonalInformationAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, clientid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cCheckUsernameUnique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cCheckUsernameUniqueAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, username}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, username, status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cCheckEmailUnique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cCheckEmailUniqueAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, email}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, email, status}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,7 +1135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1047,15 +1143,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
     <col min="4" max="4" width="69.75" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
@@ -1096,7 +1192,7 @@
     <row r="3" spans="1:6" s="2" customFormat="1"/>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1128,7 +1224,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1163,7 +1259,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1180,7 +1276,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1267,7 +1363,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -1365,13 +1461,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
         <v>152</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>153</v>
-      </c>
-      <c r="D30" t="s">
-        <v>154</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1379,339 +1475,315 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
         <v>155</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>156</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
         <v>157</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C33" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
         <v>159</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>160</v>
       </c>
-      <c r="D33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
         <v>161</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
         <v>162</v>
       </c>
-      <c r="D34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" t="s">
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" t="s">
         <v>163</v>
       </c>
-      <c r="C36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
         <v>165</v>
       </c>
-      <c r="E36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
         <v>135</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
         <v>136</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
         <v>147</v>
       </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
+    <row r="56" spans="1:6">
+      <c r="F56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
         <v>148</v>
       </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="F44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" t="s">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D58" t="s">
         <v>70</v>
       </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" t="s">
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60" t="s">
         <v>79</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C60" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D60" t="s">
         <v>87</v>
       </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" t="s">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C61" t="s">
         <v>76</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D61" t="s">
         <v>88</v>
       </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" t="s">
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" t="s">
         <v>81</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C63" t="s">
         <v>77</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D63" t="s">
         <v>89</v>
       </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" t="s">
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
         <v>82</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C64" t="s">
         <v>78</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D64" t="s">
         <v>88</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" t="s">
-        <v>23</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -1719,13 +1791,13 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -1733,13 +1805,13 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -1747,13 +1819,13 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -1761,13 +1833,13 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -1775,37 +1847,149 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" t="s">
         <v>144</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
         <v>143</v>
       </c>
-      <c r="D73" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C85" t="s">
         <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A51:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,58 +2013,58 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1907,19 +2091,19 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -1927,10 +2111,10 @@
         <v>10001</v>
       </c>
       <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
         <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1938,10 +2122,10 @@
         <v>10002</v>
       </c>
       <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
         <v>131</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:7">

--- a/msg_crm.xlsx
+++ b/msg_crm.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="196">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,31 +754,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cCheckEmailUnique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cCheckEmailUniqueAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, email}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, email, status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cEmailAutoLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cEmailAutoLoginaAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, sessionid, messageid, username, token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{requestid, sessionid, messageid, username, status}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cCheckEmailUnique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cCheckEmailUniqueAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid, messageid, email}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, sessionid, messageid, email, status}</t>
+    <t>{requestid, sessionid, messageid, status}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1159,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1143,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1606,142 +1630,136 @@
         <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="6" t="s">
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>132</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="6"/>
-      <c r="B52" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="6"/>
+      <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>135</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E55" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="F56" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="B57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="F59" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -1749,13 +1767,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -1763,13 +1781,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -1777,10 +1795,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="B64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
         <v>88</v>
@@ -1791,13 +1809,13 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -1805,10 +1823,10 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -1819,13 +1837,13 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -1833,13 +1851,13 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -1847,13 +1865,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -1861,13 +1879,13 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -1875,13 +1893,13 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -1889,10 +1907,10 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -1903,10 +1921,10 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -1917,10 +1935,10 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -1931,10 +1949,10 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -1945,10 +1963,10 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -1959,29 +1977,57 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
         <v>143</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C88" t="s">
         <v>142</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D88" t="s">
         <v>144</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E88" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1989,7 +2035,7 @@
   <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
